--- a/ProjectManagement/src/main/resources/com/mycompany/projectmanagement/excel/student.xlsx
+++ b/ProjectManagement/src/main/resources/com/mycompany/projectmanagement/excel/student.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/718064120a884b76/Documents/NetBeansProjects/Respository/ProjectManagement/src/main/resources/com/mycompany/projectmanagement/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="485" documentId="8_{7EF0FE5A-AF95-4AC7-B604-F4DDBABCDB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8285908A-2E1A-4065-A6B7-082B28DE6500}"/>
+  <xr:revisionPtr revIDLastSave="500" documentId="8_{7EF0FE5A-AF95-4AC7-B604-F4DDBABCDB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF6564C3-64F1-408D-BF05-AD62AFC70EE0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{29DDE5A3-3BF9-4DE9-9405-48FB0CB4FD7C}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
   <si>
     <t>Parent Name</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Intake Date</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Birth Date</t>
   </si>
   <si>
@@ -117,45 +114,30 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
     <t>Smith</t>
   </si>
   <si>
     <t>emma@example.com</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
     <t>Johnson</t>
   </si>
   <si>
     <t>michael@example.com</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>Brown</t>
   </si>
   <si>
     <t>sophia@example.com</t>
   </si>
   <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>Miller</t>
   </si>
   <si>
     <t>daniel@example.com</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
     <t>Diploma</t>
   </si>
   <si>
@@ -300,9 +282,6 @@
     <t>Masters_Degree</t>
   </si>
   <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
     <t>Phone.no</t>
   </si>
   <si>
@@ -346,6 +325,63 @@
   </si>
   <si>
     <t>Stephen</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Penang</t>
+  </si>
+  <si>
+    <t>Pahang</t>
+  </si>
+  <si>
+    <t>Selangor</t>
+  </si>
+  <si>
+    <t>Melaka</t>
+  </si>
+  <si>
+    <t>Perak</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>+6015411234</t>
+  </si>
+  <si>
+    <t>+6019415542</t>
+  </si>
+  <si>
+    <t>+6011132340</t>
+  </si>
+  <si>
+    <t>+6015232313</t>
+  </si>
+  <si>
+    <t>+6018232234</t>
+  </si>
+  <si>
+    <t>+6011223446</t>
+  </si>
+  <si>
+    <t>030193010132</t>
+  </si>
+  <si>
+    <t>040831091134</t>
+  </si>
+  <si>
+    <t>070181091134</t>
+  </si>
+  <si>
+    <t>050141091134</t>
+  </si>
+  <si>
+    <t>021131091134</t>
+  </si>
+  <si>
+    <t>001531091134</t>
   </si>
 </sst>
 </file>
@@ -405,19 +441,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
     <dxf>
@@ -427,19 +475,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -620,17 +656,17 @@
   <autoFilter ref="A1:L7" xr:uid="{6A6D9B3F-52BA-44EB-8CA6-4532169DBE1A}"/>
   <tableColumns count="12">
     <tableColumn id="12" xr3:uid="{CE36B7A9-F148-4900-934A-98E49D639089}" uniqueName="12" name="Name" queryTableFieldId="12" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{BB681C3F-0D9A-4A14-AB7A-CB2A7736ABFB}" uniqueName="1" name="Parent Name" queryTableFieldId="1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{0FA5E7A3-5716-4D8E-8105-277F7986DA82}" uniqueName="2" name="IC" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{4CD37D1E-8E86-41CE-8D68-48CB17FF21F6}" uniqueName="3" name="Email" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{56263006-3FFA-4B88-9EA8-F363B7705E0D}" uniqueName="4" name="Gender" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{6D57E213-D821-4D82-929D-4FA0F647186B}" uniqueName="5" name="Phone.no" queryTableFieldId="5" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{6543FF6C-9EE1-4EA2-BE70-2CA4DD90BF21}" uniqueName="6" name="Country" queryTableFieldId="6" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{58FCADE3-E9D2-4BD6-979D-39DBEDBFCCAE}" uniqueName="7" name="Address" queryTableFieldId="7" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{E4D1312F-19F1-48D4-97BF-1631BCC66BCB}" uniqueName="8" name="Birth Date" queryTableFieldId="8" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{3989A500-55A1-4023-B24A-2E24AD745E8E}" uniqueName="9" name="Entry Level" queryTableFieldId="9" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{1B8171B3-3DE4-40EE-8F42-B27CB614BD3D}" uniqueName="10" name="Course" queryTableFieldId="10" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{910A8CA0-F7F9-4120-8B2D-48A2A8F8DF62}" uniqueName="11" name="Intake Date" queryTableFieldId="11" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{BB681C3F-0D9A-4A14-AB7A-CB2A7736ABFB}" uniqueName="1" name="Parent Name" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0FA5E7A3-5716-4D8E-8105-277F7986DA82}" uniqueName="2" name="IC" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{4CD37D1E-8E86-41CE-8D68-48CB17FF21F6}" uniqueName="3" name="Email" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{56263006-3FFA-4B88-9EA8-F363B7705E0D}" uniqueName="4" name="Gender" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{6D57E213-D821-4D82-929D-4FA0F647186B}" uniqueName="5" name="Phone.no" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{6543FF6C-9EE1-4EA2-BE70-2CA4DD90BF21}" uniqueName="6" name="State" queryTableFieldId="6" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{58FCADE3-E9D2-4BD6-979D-39DBEDBFCCAE}" uniqueName="7" name="Address" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{E4D1312F-19F1-48D4-97BF-1631BCC66BCB}" uniqueName="8" name="Birth Date" queryTableFieldId="8" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{3989A500-55A1-4023-B24A-2E24AD745E8E}" uniqueName="9" name="Entry Level" queryTableFieldId="9" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{1B8171B3-3DE4-40EE-8F42-B27CB614BD3D}" uniqueName="10" name="Course" queryTableFieldId="10" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{910A8CA0-F7F9-4120-8B2D-48A2A8F8DF62}" uniqueName="11" name="Intake Date" queryTableFieldId="11" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1006,16 +1042,17 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.1796875" bestFit="1" customWidth="1"/>
@@ -1025,12 +1062,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -1039,251 +1076,251 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>77</v>
+      <c r="F1" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>91</v>
+      <c r="A2" t="s">
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>30193010132</v>
+      <c r="C2" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>1234567890</v>
+      <c r="F2" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I2" s="1">
         <v>34926</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1">
         <v>45405</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>85</v>
+      <c r="A3" t="s">
+        <v>78</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>12345</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>9876543210</v>
+      <c r="F3" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I3" s="1">
         <v>35874</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1">
         <v>45428</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>86</v>
+      <c r="A4" t="s">
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>67890</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>5678901234</v>
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I4" s="1">
         <v>35744</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L4" s="1">
         <v>45174</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>88</v>
+      <c r="A5" t="s">
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>54321</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>6789012345</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I5" s="1">
         <v>35333</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1">
         <v>45301</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>89</v>
+      <c r="A6" t="s">
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>98765</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>3456789012</v>
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I6" s="1">
         <v>36346</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L6" s="1">
         <v>45174</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>90</v>
+      <c r="A7" t="s">
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>13579</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>8901234567</v>
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I7" s="1">
         <v>35945</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L7" s="1">
         <v>45405</v>
@@ -1316,173 +1353,173 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1549,19 +1586,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/ProjectManagement/src/main/resources/com/mycompany/projectmanagement/excel/student.xlsx
+++ b/ProjectManagement/src/main/resources/com/mycompany/projectmanagement/excel/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/718064120a884b76/Documents/NetBeansProjects/Respository/ProjectManagement/src/main/resources/com/mycompany/projectmanagement/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="500" documentId="8_{7EF0FE5A-AF95-4AC7-B604-F4DDBABCDB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF6564C3-64F1-408D-BF05-AD62AFC70EE0}"/>
+  <xr:revisionPtr revIDLastSave="501" documentId="8_{7EF0FE5A-AF95-4AC7-B604-F4DDBABCDB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D89F4D4-D480-46CC-8806-AA772627379D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{29DDE5A3-3BF9-4DE9-9405-48FB0CB4FD7C}"/>
   </bookViews>
@@ -339,9 +339,6 @@
     <t>Selangor</t>
   </si>
   <si>
-    <t>Melaka</t>
-  </si>
-  <si>
     <t>Perak</t>
   </si>
   <si>
@@ -382,6 +379,9 @@
   </si>
   <si>
     <t>001531091134</t>
+  </si>
+  <si>
+    <t>Malacca</t>
   </si>
 </sst>
 </file>
@@ -448,42 +448,6 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="1"/>
@@ -612,6 +576,42 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -655,25 +655,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A6D9B3F-52BA-44EB-8CA6-4532169DBE1A}" name="student__5" displayName="student__5" ref="A1:L7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:L7" xr:uid="{6A6D9B3F-52BA-44EB-8CA6-4532169DBE1A}"/>
   <tableColumns count="12">
-    <tableColumn id="12" xr3:uid="{CE36B7A9-F148-4900-934A-98E49D639089}" uniqueName="12" name="Name" queryTableFieldId="12" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{BB681C3F-0D9A-4A14-AB7A-CB2A7736ABFB}" uniqueName="1" name="Parent Name" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{0FA5E7A3-5716-4D8E-8105-277F7986DA82}" uniqueName="2" name="IC" queryTableFieldId="2" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{4CD37D1E-8E86-41CE-8D68-48CB17FF21F6}" uniqueName="3" name="Email" queryTableFieldId="3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{56263006-3FFA-4B88-9EA8-F363B7705E0D}" uniqueName="4" name="Gender" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{6D57E213-D821-4D82-929D-4FA0F647186B}" uniqueName="5" name="Phone.no" queryTableFieldId="5" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{6543FF6C-9EE1-4EA2-BE70-2CA4DD90BF21}" uniqueName="6" name="State" queryTableFieldId="6" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{58FCADE3-E9D2-4BD6-979D-39DBEDBFCCAE}" uniqueName="7" name="Address" queryTableFieldId="7" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{E4D1312F-19F1-48D4-97BF-1631BCC66BCB}" uniqueName="8" name="Birth Date" queryTableFieldId="8" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{3989A500-55A1-4023-B24A-2E24AD745E8E}" uniqueName="9" name="Entry Level" queryTableFieldId="9" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{1B8171B3-3DE4-40EE-8F42-B27CB614BD3D}" uniqueName="10" name="Course" queryTableFieldId="10" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{910A8CA0-F7F9-4120-8B2D-48A2A8F8DF62}" uniqueName="11" name="Intake Date" queryTableFieldId="11" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{CE36B7A9-F148-4900-934A-98E49D639089}" uniqueName="12" name="Name" queryTableFieldId="12" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{BB681C3F-0D9A-4A14-AB7A-CB2A7736ABFB}" uniqueName="1" name="Parent Name" queryTableFieldId="1" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{0FA5E7A3-5716-4D8E-8105-277F7986DA82}" uniqueName="2" name="IC" queryTableFieldId="2" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{4CD37D1E-8E86-41CE-8D68-48CB17FF21F6}" uniqueName="3" name="Email" queryTableFieldId="3" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{56263006-3FFA-4B88-9EA8-F363B7705E0D}" uniqueName="4" name="Gender" queryTableFieldId="4" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{6D57E213-D821-4D82-929D-4FA0F647186B}" uniqueName="5" name="Phone.no" queryTableFieldId="5" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{6543FF6C-9EE1-4EA2-BE70-2CA4DD90BF21}" uniqueName="6" name="State" queryTableFieldId="6" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{58FCADE3-E9D2-4BD6-979D-39DBEDBFCCAE}" uniqueName="7" name="Address" queryTableFieldId="7" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{E4D1312F-19F1-48D4-97BF-1631BCC66BCB}" uniqueName="8" name="Birth Date" queryTableFieldId="8" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{3989A500-55A1-4023-B24A-2E24AD745E8E}" uniqueName="9" name="Entry Level" queryTableFieldId="9" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{1B8171B3-3DE4-40EE-8F42-B27CB614BD3D}" uniqueName="10" name="Course" queryTableFieldId="10" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{910A8CA0-F7F9-4120-8B2D-48A2A8F8DF62}" uniqueName="11" name="Intake Date" queryTableFieldId="11" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{557B5255-6282-47D1-B2B4-73C272DB7964}" name="Table6" displayName="Table6" ref="A1:A6" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{557B5255-6282-47D1-B2B4-73C272DB7964}" name="Table6" displayName="Table6" ref="A1:A6" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A1:A6" xr:uid="{557B5255-6282-47D1-B2B4-73C272DB7964}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{CAB14B47-59A7-4A73-AE85-F04704CD5CE3}" name="PhD"/>
@@ -683,7 +683,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77DD17DF-86F0-4C28-B239-5E0882BB1CBE}" name="Table7" displayName="Table7" ref="B1:B9" totalsRowShown="0" headerRowDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77DD17DF-86F0-4C28-B239-5E0882BB1CBE}" name="Table7" displayName="Table7" ref="B1:B9" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="B1:B9" xr:uid="{77DD17DF-86F0-4C28-B239-5E0882BB1CBE}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{40839BE0-E57D-44A9-BF97-88EBBF4C08BC}" name="Masters_Degree"/>
@@ -693,7 +693,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7EA7055C-6FE5-41E0-9CC2-A6C288891CD9}" name="Table8" displayName="Table8" ref="C1:C6" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7EA7055C-6FE5-41E0-9CC2-A6C288891CD9}" name="Table8" displayName="Table8" ref="C1:C6" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="C1:C6" xr:uid="{7EA7055C-6FE5-41E0-9CC2-A6C288891CD9}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A2DDEFCA-A009-424A-BB7B-0A291CA0C8DF}" name="Foundation"/>
@@ -703,7 +703,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A236BD95-1825-4B46-A94C-14FEFA1E88E6}" name="Table10" displayName="Table10" ref="E1:E11" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A236BD95-1825-4B46-A94C-14FEFA1E88E6}" name="Table10" displayName="Table10" ref="E1:E11" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="E1:E11" xr:uid="{A236BD95-1825-4B46-A94C-14FEFA1E88E6}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{AD9F35F6-DEF7-41CE-B752-5A8A749CD277}" name="Degree"/>
@@ -713,7 +713,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BDFE27BC-E17A-46E5-981F-77F39424C82C}" name="Table9" displayName="Table9" ref="D1:D15" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BDFE27BC-E17A-46E5-981F-77F39424C82C}" name="Table9" displayName="Table9" ref="D1:D15" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="D1:D15" xr:uid="{BDFE27BC-E17A-46E5-981F-77F39424C82C}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A502CDD8-42DF-4D48-8413-7B6A226F30AF}" name="Diploma"/>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
         <v>86</v>
@@ -1144,7 +1144,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1153,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
         <v>87</v>
@@ -1182,7 +1182,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -1191,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
         <v>88</v>
@@ -1220,7 +1220,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -1229,10 +1229,10 @@
         <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
         <v>75</v>
@@ -1258,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1267,10 +1267,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
         <v>76</v>
@@ -1296,7 +1296,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -1305,10 +1305,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
         <v>77</v>
